--- a/DATA/log/logbook_2025_11.xlsx
+++ b/DATA/log/logbook_2025_11.xlsx
@@ -1,37 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Coding\Project\python\Self-Project\ordered\AMOS-filter\DATA\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2BACE5-220A-4170-AE0C-EC5B72CF58F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>Orig rows</t>
+  </si>
+  <si>
+    <t>Out rows</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Missing reference</t>
+  </si>
+  <si>
+    <t>Missing reference type</t>
+  </si>
+  <si>
+    <t>Missing revision</t>
+  </si>
+  <si>
+    <t>SEQ auto-valid</t>
+  </si>
+  <si>
+    <t>Row mismatch</t>
+  </si>
+  <si>
+    <t>Total errors</t>
+  </si>
+  <si>
+    <t>Error rate (%)</t>
+  </si>
+  <si>
+    <t>Processing time (s)</t>
+  </si>
+  <si>
+    <t>2025-11-22 14:17:50</t>
+  </si>
+  <si>
+    <t>A879-121025-CHK-Y06</t>
+  </si>
+  <si>
+    <t>2025-11-22 14:21:39</t>
+  </si>
+  <si>
+    <t>2025-11-22 15:10:58</t>
+  </si>
+  <si>
+    <t>A872-190825-CHK-Y06</t>
+  </si>
+  <si>
+    <t>2025-11-22 16:21:45</t>
+  </si>
+  <si>
+    <t>2025-11-22 16:44:21</t>
+  </si>
+  <si>
+    <t>2025-11-22 16:51:23</t>
+  </si>
+  <si>
+    <t>2025-11-22 16:57:22</t>
+  </si>
+  <si>
+    <t>2025-11-22 16:58:20</t>
+  </si>
+  <si>
+    <t>2025-11-22 17:00:41</t>
+  </si>
+  <si>
+    <t>2025-11-22 17:01:57</t>
+  </si>
+  <si>
+    <t>2025-11-22 17:01:58</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +144,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,199 +468,596 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Orig rows</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Out rows</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Valid</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Missing reference</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Missing reference type</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Missing revision</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>SEQ auto-valid</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Row mismatch</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Total errors</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Error rate (%)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Processing time (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-11-22 14:17:50</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A879-121025-CHK-Y06</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
         <v>1242</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1242</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>908</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>25</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>197</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>112</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>478</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>309</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>24.88</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>2.11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-11-22 14:21:39</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A879-121025-CHK-Y06</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
         <v>1242</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1242</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>908</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>25</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>197</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>112</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>478</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>309</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>24.88</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>2.11</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>1234</v>
+      </c>
+      <c r="E4">
+        <v>1234</v>
+      </c>
+      <c r="F4">
+        <v>902</v>
+      </c>
+      <c r="G4">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>207</v>
+      </c>
+      <c r="I4">
+        <v>80</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>490</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>288</v>
+      </c>
+      <c r="N4">
+        <v>23.34</v>
+      </c>
+      <c r="O4">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>1234</v>
+      </c>
+      <c r="E5">
+        <v>1234</v>
+      </c>
+      <c r="F5">
+        <v>915</v>
+      </c>
+      <c r="G5">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>195</v>
+      </c>
+      <c r="I5">
+        <v>79</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>490</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>275</v>
+      </c>
+      <c r="N5">
+        <v>22.29</v>
+      </c>
+      <c r="O5">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>1234</v>
+      </c>
+      <c r="E6">
+        <v>1234</v>
+      </c>
+      <c r="F6">
+        <v>938</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>176</v>
+      </c>
+      <c r="I6">
+        <v>77</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>490</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>254</v>
+      </c>
+      <c r="N6">
+        <v>20.58</v>
+      </c>
+      <c r="O6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>1234</v>
+      </c>
+      <c r="E7">
+        <v>1234</v>
+      </c>
+      <c r="F7">
+        <v>951</v>
+      </c>
+      <c r="G7">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>168</v>
+      </c>
+      <c r="I7">
+        <v>72</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>490</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>241</v>
+      </c>
+      <c r="N7">
+        <v>19.53</v>
+      </c>
+      <c r="O7">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1234</v>
+      </c>
+      <c r="E8">
+        <v>1234</v>
+      </c>
+      <c r="F8">
+        <v>951</v>
+      </c>
+      <c r="G8">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>168</v>
+      </c>
+      <c r="I8">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>490</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>241</v>
+      </c>
+      <c r="N8">
+        <v>19.53</v>
+      </c>
+      <c r="O8">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>1234</v>
+      </c>
+      <c r="E9">
+        <v>1234</v>
+      </c>
+      <c r="F9">
+        <v>951</v>
+      </c>
+      <c r="G9">
+        <v>42</v>
+      </c>
+      <c r="H9">
+        <v>168</v>
+      </c>
+      <c r="I9">
+        <v>72</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>490</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>241</v>
+      </c>
+      <c r="N9">
+        <v>19.53</v>
+      </c>
+      <c r="O9">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>1234</v>
+      </c>
+      <c r="E10">
+        <v>1234</v>
+      </c>
+      <c r="F10">
+        <v>951</v>
+      </c>
+      <c r="G10">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>168</v>
+      </c>
+      <c r="I10">
+        <v>72</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>490</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>241</v>
+      </c>
+      <c r="N10">
+        <v>19.53</v>
+      </c>
+      <c r="O10">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>1234</v>
+      </c>
+      <c r="E11">
+        <v>1234</v>
+      </c>
+      <c r="F11">
+        <v>951</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
+      </c>
+      <c r="H11">
+        <v>168</v>
+      </c>
+      <c r="I11">
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>490</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>241</v>
+      </c>
+      <c r="N11">
+        <v>19.53</v>
+      </c>
+      <c r="O11">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>1242</v>
+      </c>
+      <c r="E12">
+        <v>1242</v>
+      </c>
+      <c r="F12">
+        <v>952</v>
+      </c>
+      <c r="G12">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>164</v>
+      </c>
+      <c r="I12">
+        <v>103</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>478</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>267</v>
+      </c>
+      <c r="N12">
+        <v>21.5</v>
+      </c>
+      <c r="O12">
+        <v>1.72</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/DATA/log/logbook_2025_11.xlsx
+++ b/DATA/log/logbook_2025_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1683,6 +1683,57 @@
         <v>1.78</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-11-26 00:44:49</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A873-150925-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>993</v>
+      </c>
+      <c r="E25" t="n">
+        <v>993</v>
+      </c>
+      <c r="F25" t="n">
+        <v>951</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>17</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>813</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>42</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA/log/logbook_2025_11.xlsx
+++ b/DATA/log/logbook_2025_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,6 +1734,57 @@
         <v>1.96</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-11-29 16:40:54</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A873-150925-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>891</v>
+      </c>
+      <c r="E26" t="n">
+        <v>891</v>
+      </c>
+      <c r="F26" t="n">
+        <v>881</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>631</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>10</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA/log/logbook_2025_11.xlsx
+++ b/DATA/log/logbook_2025_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1785,6 +1785,720 @@
         <v>2.2</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:36:46</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16851-310825-CHK-EVENTS</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3089</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3089</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3087</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1720</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O27" t="n">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:36:54</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16851-310825-CHK-EVENTS</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3089</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3089</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3087</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1720</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:37:05</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A605-010525-CHK-Y12</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3988</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3988</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3890</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>93</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1963</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>97</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="O29" t="n">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:37:16</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A605-010525-CHK-Y12</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3988</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3988</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3890</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>93</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1963</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>97</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="O30" t="n">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:37:22</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A872-190825-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2176</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2176</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2147</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>25</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1051</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>26</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:37:29</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A872-190825-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2176</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2176</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2147</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>25</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1051</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>26</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:37:32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A873-150925-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>891</v>
+      </c>
+      <c r="E33" t="n">
+        <v>891</v>
+      </c>
+      <c r="F33" t="n">
+        <v>881</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>631</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:37:34</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A873-150925-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>891</v>
+      </c>
+      <c r="E34" t="n">
+        <v>891</v>
+      </c>
+      <c r="F34" t="n">
+        <v>881</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>631</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>10</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:37:36</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A877-181125-CHK-A04</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>467</v>
+      </c>
+      <c r="E35" t="n">
+        <v>467</v>
+      </c>
+      <c r="F35" t="n">
+        <v>465</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>259</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:37:37</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A877-181125-CHK-A04</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>467</v>
+      </c>
+      <c r="E36" t="n">
+        <v>467</v>
+      </c>
+      <c r="F36" t="n">
+        <v>465</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>259</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:37:40</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A879-121025-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1211</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1171</v>
+      </c>
+      <c r="G37" t="n">
+        <v>23</v>
+      </c>
+      <c r="H37" t="n">
+        <v>16</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>478</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>17</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:37:43</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A879-121025-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1211</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1171</v>
+      </c>
+      <c r="G38" t="n">
+        <v>23</v>
+      </c>
+      <c r="H38" t="n">
+        <v>16</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>478</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>17</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:53:47</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16851-310825-CHK-EVENTS</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3089</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3089</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3087</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1720</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O39" t="n">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-11-30 00:02:43</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A872-190825-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2176</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2176</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2147</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>25</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1051</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>26</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O40" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA/log/logbook_2025_11.xlsx
+++ b/DATA/log/logbook_2025_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2499,6 +2499,210 @@
         <v>6.68</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-11-30 00:15:15</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A605-010525-CHK-Y12</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3988</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3988</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3890</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>93</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1963</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>97</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="O41" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-11-30 00:15:55</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16851-310825-CHK-EVENTS</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3089</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3089</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3087</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1720</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O42" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-11-30 00:16:32</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16851-310825-CHK-EVENTS</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>3089</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3089</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3087</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1720</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O43" t="n">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-11-30 00:32:26</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A873-150925-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>891</v>
+      </c>
+      <c r="E44" t="n">
+        <v>891</v>
+      </c>
+      <c r="F44" t="n">
+        <v>881</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>631</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>10</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA/log/logbook_2025_11.xlsx
+++ b/DATA/log/logbook_2025_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2703,6 +2703,159 @@
         <v>3.17</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-11-30 00:34:56</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A605-010525-CHK-Y12</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>3988</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3988</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3890</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>93</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1963</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>97</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="O45" t="n">
+        <v>11.12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-11-30 00:49:07</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A873-150925-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>891</v>
+      </c>
+      <c r="E46" t="n">
+        <v>891</v>
+      </c>
+      <c r="F46" t="n">
+        <v>881</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>631</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>10</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-11-30 00:49:24</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A605-010525-CHK-Y12</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>3988</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3988</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3890</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>93</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1963</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>97</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="O47" t="n">
+        <v>11.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA/log/logbook_2025_11.xlsx
+++ b/DATA/log/logbook_2025_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2856,6 +2856,108 @@
         <v>11.21</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-11-30 13:24:00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A873-150925-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>914</v>
+      </c>
+      <c r="E48" t="n">
+        <v>914</v>
+      </c>
+      <c r="F48" t="n">
+        <v>902</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>11</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>644</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>12</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-11-30 15:37:50</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A873-150925-CHK-Y06</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1043</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>16</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>750</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>17</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O49" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
